--- a/static/template/单件分箱标签导入模板.xlsx
+++ b/static/template/单件分箱标签导入模板.xlsx
@@ -54,7 +54,7 @@
     <t>1/3</t>
   </si>
   <si>
-    <t>2020-10-25</t>
+    <t>2020年10月25日</t>
   </si>
   <si>
     <t>件</t>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
